--- a/data/hotels_by_city/Dallas/Dallas_shard_368.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_368.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="300">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>bobbyandy</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Ken W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r534969011-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -192,6 +198,9 @@
     <t>Called day before and no handicapped room was available or reserved a regular room. Got there and while registering was told handicapped room was available. Had to wait a few minutes for it to be cleaned.Clean room, friendly staff and good food for people in a hurry and a reasonable price for the room.</t>
   </si>
   <si>
+    <t>ShellyinHoumaLA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r522079619-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -210,6 +219,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>MichaelFM76262</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r506211994-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -231,6 +243,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>lancerj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r498396843-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -246,6 +261,9 @@
     <t>Very nice room.  Staff was helpful.  Got to room about 1pm.  Husband needed to laydown.  Room wasn't ready till 2:15 to 2:30.  I know check in is 3pm but usually can get in earlier if we arrive early.  But was a nice stay.  Food was okay</t>
   </si>
   <si>
+    <t>tracemyirishroots</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r492582009-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -261,6 +279,9 @@
     <t>We stayed at this Holiday Inn as we were attending a family reunion close by. From the time we entered until the time we left, we felt very happy with our decision to stay here. All the staff were friendly and helpful. The hotel itself was clean and modern looking. The room was large, with refrigerator and a Keurig coffee maker. Comfortable bed and pillows. When we got home the staff called us as the housekeeper found a charger in the room. (it wasn't ours) I was impressed they took the time to do that.</t>
   </si>
   <si>
+    <t>jmgraffix</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r490827693-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -279,6 +300,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>GemOnTheRoad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r484784988-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -303,6 +327,9 @@
     <t>Being able to depend on HIE to deliver consistent greatness makes a trip smooth and enjoyable. It was so nice to enter our spacious suite and not have to think about anything but the reason we were in town. The accommodations were, as usual, modern, sleek, clean, and comfortable. The shower had great pressure and ample hot water. Beds were cool and firm and pillows were soft and cozy. The staff greeted us warmly and attended to us in a friendly manner. My only complaint is the usual, and minor: breakfast needs improvement, namely the preparation of the proteins, which are usually salty or poorly prepared. But there are plenty of other options such as cereal, breads, and fruit. Thank you to HIE for being reliable and always meeting or exceeding expectations. More</t>
   </si>
   <si>
+    <t>Vincent B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r483988971-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -318,6 +345,9 @@
     <t xml:space="preserve">This place is Real Nice.The people that work here or So Friendly and Kind.The outside does not give the inside Justice.The rooms or So clean and nice, we have a safe, microwave and refrigerator.The room is handicap friendly. Continental breakfast is to die for,so many choices. Sausage eggs pancakes biscuits and gravy you name it they've got it fruit drinks everything.No need to go to a restaurant outside.This comes with the room.Bed so soft ,you guaranteed a Good Night sleep.  </t>
   </si>
   <si>
+    <t>Dana W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r483061364-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -336,6 +366,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Jo M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r456526516-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -363,6 +396,9 @@
     <t>Great stay for 3 days while husband here on business. Friendly and efficient staff from front desk to housekeeping. Clean, modern and sleek hotel with comfy beds.  Awesome restaurants in downtown Roanoke that will please anyone. More</t>
   </si>
   <si>
+    <t>DeeMZ5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r442272711-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -384,6 +420,9 @@
     <t>So we bought the old farmhouse in 2009 because it was an adventure.  Fast forward through MANY renovations to 2016 -- and an older breaker in the breaker box gives up, and the whole breaker box goes up in flames on a Sunday morning.  (God Bless Liberty Mutual, btw!)So, while the house has no electricity, heat or running water, the insurance company puts us (me &amp; my husband, 3 teenaged boys) up in a nearby hotel - this one, the Holiday Inn Express Northlake/Roanoke.Hayma &amp; Rodney at the front desk were so sweet when we checked in, I almost cried.  They found me the perfect rooms for a potentially LONG stay with teens:  2 adjoining rooms, right across from the pool &amp; gym.  The second night, at 9pm, when a kid was out of notebook paper for homework and COMPLETELY stressed about it, Basit found him some behind the desk and saved the day.  And Bryonna made sure we got breakfast, just a little early, when we had to leave for school before breakfast.  (She also let me talk her ear off on one or two occasions.)The rooms were clean, breakfast always good, the pool was wonderful and the gym was good, too.  The staff is amazing.  If you get the opportunity, stay here.More</t>
   </si>
   <si>
+    <t>Ratboy859</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r438611217-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -411,6 +450,9 @@
     <t>With my previous review in place (June 2016), I decided to give it another chance.  I'm glad that I did.  I was placed towards the front of the hotel and didn't hear any construction issues.  I did hear some road noise, but it wasn't a bother.  The Air Conditioning system worked flawlessly and did provide some 'white noise' to counteract any disturbances.I was warmly greeted by the Front Desk and was asked if I had my 'tax exempt' form ready for filing.  I forgot about it and the Front Desk remembered!  Nicely done.  The room was comfortable and the bed (king size) was comfy.  The morning breakfast staff was gracious and smiling.  Yep, things are improving and I will stay there in the future.  I'm glad that I gave this IHG property another chance.More</t>
   </si>
   <si>
+    <t>Pris B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r435978846-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -426,6 +468,9 @@
     <t>Hubby and I had the pleasure of staying at the new motel. I must say this was very modern for a HIE and the staff was the nicest we have had anywhere. Although located next to I-35, it was extremely quiet and very,very clean</t>
   </si>
   <si>
+    <t>rchogan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r409483369-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -453,6 +498,9 @@
     <t>Stayed there overnight told by front desk Christina it was okay to park our oversized vehicle on the road in front .our truck was towed away by local police and $700 to get it out. Hotel manager refused to help us and actually called the police on us .Absolute worst hotel experience ever!More</t>
   </si>
   <si>
+    <t>Lee M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r395614627-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -469,6 +517,9 @@
   </si>
   <si>
     <t>July 2016</t>
+  </si>
+  <si>
+    <t>sammyc213</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r393741146-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
@@ -517,6 +568,9 @@
 So, it's a modern HIE with an interesting design with tiles on the bathroom that look like wood floors.  The HVAC worked well.  The complimentary breakfast is the standard usual HIE fare.  The upside is that the morning serving host was very gracious and always had a smile and greeting for me.  Very nice lady that brought a smile to...I am a Spire Elite member and I usually book the IHG line because of dependability, service and overall comfort.  I stayed in this HIE north of Fossil Creek due to the nature of the I35W construction.  I  booked at gov't lodging rate because of my duty status.  On the last morning (Friday), I kept hearing the "BEEP, BEEP, BEEP" that started about 3:00 am.  I thought it was an alarm clock in a spare room.  It went on for hours.  What it was is the construction on the back side of the hotel.  Lots of cement mixer trucks and lots of construction going on at 0300 - rise and shine.During check out, I was given the gov't lodging rate except for Thursday night.  It was race weekend and I wasn't informed about the rate increase until I got the bill on Friday morning.  After talking with the front desk, I was provided the gov't rate for Thursday night - but thank goodness I took a look at my bill.  No one mentioned it to me prior to check-in.  So, it's a modern HIE with an interesting design with tiles on the bathroom that look like wood floors.  The HVAC worked well.  The complimentary breakfast is the standard usual HIE fare.  The upside is that the morning serving host was very gracious and always had a smile and greeting for me.  Very nice lady that brought a smile to my face.  I have mixed emotions about staying here.  If it's trying to capitalize on making money from the Texas Motor Speedway - then go for it - but ensure you mention the rate hikes to others that were there for the week.  I'm doing a lot of travel to the Fort Worth, TX area and I'm still looking for that niche place that is close to work while being a 'home away from home' - this HIE didn't make that happen.More</t>
   </si>
   <si>
+    <t>Craigatcraignet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r377960462-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -538,6 +592,9 @@
     <t>First I want to thank Rodney and Sadit (sp?) for their work to make our stay better.  When we arrived in the room the first thing that happened was my wife tripping on the over turned luggage rack.  Then we noted that all of the drawers were wide open and the ottoman was upside down.  After telling the desk about I was told that we would be upgraded to a better room the next day and that we would get extra reward points.  We did get the room, an executive king suite but I'm still waiting for the points.  The rooms were clean and comfortable,  The breakfast was the usual so it was good.  Nice pool.  Again thanks to the staff for making the stay better.   Also check out the Buck-ee's on the other side of the freeway.More</t>
   </si>
   <si>
+    <t>Phil M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r375165855-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -553,6 +610,9 @@
     <t>The hotel was nice. The rooms were updated recently and nicely furnished. The bathroom was functional with nice fixtures.  The hotel was clean and has a pool and gym. Nice place and would stay again.It is very close to the racetrack and there is some great food in nearby Roanoke.</t>
   </si>
   <si>
+    <t>Sandra B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r310291314-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -571,6 +631,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Laura A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r299998788-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -589,6 +652,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Traveller68845</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r290748392-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -610,6 +676,9 @@
     <t>Definitely a newer property, with a more modern look than most HIE properties.  My wife was impressed.   Was welcomed as an IHG Platinum member, given choice of usual amenities (Snack/water) or a 1,000 pts ...  took the points, but lo and behold, only 500 were credited to my account?  Wi fi again a little awkward to sign in/maintain.  (Desk chair worked!)   Room was very comfortable and clean.  Slept very well.   Breakfast area was excellent, probably the best I have seen in years.   Food was very good and had a wide choice.  This is a newer property and the area is the process of development.  There was a Subway close, but other than that, most restaurants, etc are probably 2-3 miles away at present.   Just a note.More</t>
   </si>
   <si>
+    <t>MISTADAYLON</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r286472513-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -628,6 +697,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Greg D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r283702738-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -643,6 +715,9 @@
     <t>I stayed here one night after a late night delayed flight out of Love Field. Property is very well cared for....room was large and clean. The breakfast buffet was included and had a large selection of hot and cold breakfast items. Wifi was pretty fast considering most hotels I've stayed at. Staff were very friendly. This hotel is basically at the corner of I35w and highway 114...caddy corner to the Texas motor speedway;all in all, a very good location. The room was $79, not bad for the location and how nice the place was.</t>
   </si>
   <si>
+    <t>Jo_in_TX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r281879507-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -661,6 +736,9 @@
     <t>We had a wedding to attend in Denton and also a family birthday gathering so we all decided to stay at this hotel. The location is great, just off I-35, across from the Texas Motorway race track. There were no races the weekend we were there so it was not crazy. The hotel is also close to great restaurants in downtown Roanoke, Walmart, Chic-Fila, Wendy's, Subway, etc. It was just a 10 min drive to these stores. The hotel is new, modern and clean. The hotel staff, from front office to housekeeping and especially the dining room staff were very friendly and professional. We had booked a Queen Suite and it was very comfortable. There was a microwave, fridge and sink in the kitchenette area which made it convenient for us to store and reheat our left-overs from the restaurants. And a small bonus (for me at least!) was that their bathroom products like shampoo, conditioner and lotion are from Bath &amp; Bodyworks and it happened to be the scent I like!!! I used the fitness room when we were there and the equipment were all in good working condition. The kids in our group also used the swimming pool and had fun. The breakfast spread was decent, they had the usual cereals, yoghurt, pancakes, bacon, ham, scrambled eggs, breads, but I think the best item was the Cinnamon Rolls. They were as good as the ones from Cinnabon. The...We had a wedding to attend in Denton and also a family birthday gathering so we all decided to stay at this hotel. The location is great, just off I-35, across from the Texas Motorway race track. There were no races the weekend we were there so it was not crazy. The hotel is also close to great restaurants in downtown Roanoke, Walmart, Chic-Fila, Wendy's, Subway, etc. It was just a 10 min drive to these stores. The hotel is new, modern and clean. The hotel staff, from front office to housekeeping and especially the dining room staff were very friendly and professional. We had booked a Queen Suite and it was very comfortable. There was a microwave, fridge and sink in the kitchenette area which made it convenient for us to store and reheat our left-overs from the restaurants. And a small bonus (for me at least!) was that their bathroom products like shampoo, conditioner and lotion are from Bath &amp; Bodyworks and it happened to be the scent I like!!! I used the fitness room when we were there and the equipment were all in good working condition. The kids in our group also used the swimming pool and had fun. The breakfast spread was decent, they had the usual cereals, yoghurt, pancakes, bacon, ham, scrambled eggs, breads, but I think the best item was the Cinnamon Rolls. They were as good as the ones from Cinnabon. The only "down" thing I can think of is that the hotel only has 1 elevator so sometimes it can take a while to go up or down.  But all in all, we had a very good stay and I would recommend highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>Kelly G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r271888390-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -679,6 +757,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>m0947</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r261791633-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -697,6 +778,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Gerry G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r258619302-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -712,6 +796,9 @@
     <t>The hotel seems like it is new construction, everything is clean and appears to be new. The suite we stayed in was on the forth floor, was very clean, everything worked perfectly and was well appointed with a small sitting area, a wet bar with refrigerator, two flat screen TVs, one in the sitting area and one in the bedroom area.The staff was friendly and helpful responding to our requests with great service and asking if there was anything else we required. The check-in was quick and efficient.</t>
   </si>
   <si>
+    <t>Trisa D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r233749380-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -730,6 +817,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Amy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r583301693-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -751,6 +841,9 @@
     <t>If you want a great night’s sleep while traveling near Fort Worth, TX, may I suggest this Holiday Inn?My husband and I experienced an extremely comfortable bed - not always the case in many hotels. So comfortable, in fact, that I slept too close to the end of breakfast to report on breakfast. As my husband travels frequently (weekly) for business across the United States, he has incredible amounts of good, bad, and in-between knowledge of hotel quality. Now honestly, size of rooms doesn’t matter. This one had a lot of empty floor space, but for what purpose? Cleanliness makes a difference, and this one sparkled. Sleep quality, our #1 requirement, ranked high, and that makes all the difference in a hotel stay. Quiet matters, too. We had that. Staff gave great assistance, real concern for attentiveness to us, and interacted with us naturally, not simply following protocol.  We will return to this hotel and look forward to repeat experiences.  More</t>
   </si>
   <si>
+    <t>Mallory W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r581405658-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -769,6 +862,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>Bellaelong</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r576485766-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -787,6 +883,9 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>Scooter1223</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r553557197-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -800,6 +899,9 @@
   </si>
   <si>
     <t>January 2018</t>
+  </si>
+  <si>
+    <t>Gary L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r541397326-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
@@ -1322,43 +1424,47 @@
       <c r="A2" t="n">
         <v>63252</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>155662</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1378,50 +1484,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>63252</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>56456</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>53</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1435,50 +1545,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>63252</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>155663</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1492,50 +1606,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>63252</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>155664</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1549,41 +1667,45 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>63252</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>155665</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
@@ -1602,50 +1724,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>63252</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>155666</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1665,50 +1791,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>63252</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>155667</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1726,50 +1856,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>63252</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>155668</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1783,50 +1917,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>63252</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>155669</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1840,50 +1978,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>63252</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>31401</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>100</v>
       </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" t="s">
-        <v>104</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>92</v>
-      </c>
       <c r="O11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1897,50 +2039,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>63252</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>38644</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1952,56 +2098,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="X12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>63252</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>155670</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2015,50 +2165,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>63252</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>155671</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2074,56 +2228,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="X14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>63252</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>155672</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2137,50 +2295,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>63252</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>155673</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2192,56 +2354,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="X16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>63252</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>7440</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2261,50 +2427,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>63252</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>155674</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2324,50 +2494,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>63252</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>155670</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="O19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2383,56 +2557,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="X19" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="Y19" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>63252</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>155675</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="O20" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2450,50 +2628,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>63252</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>37724</v>
+      </c>
+      <c r="C21" t="s">
+        <v>190</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="J21" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="O21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2507,50 +2689,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>63252</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>8065</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="J22" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="O22" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2564,50 +2750,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>63252</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>15275</v>
+      </c>
+      <c r="C23" t="s">
+        <v>203</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="J23" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="K23" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2621,50 +2811,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>63252</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>155676</v>
+      </c>
+      <c r="C24" t="s">
+        <v>210</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="J24" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="K24" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="O24" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -2684,50 +2878,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>63252</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>155677</v>
+      </c>
+      <c r="C25" t="s">
+        <v>218</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="J25" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="K25" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="O25" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -2745,50 +2943,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>63252</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>22665</v>
+      </c>
+      <c r="C26" t="s">
+        <v>225</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="J26" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="K26" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -2808,50 +3010,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>63252</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>155678</v>
+      </c>
+      <c r="C27" t="s">
+        <v>231</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J27" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="K27" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -2871,50 +3077,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>63252</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>2660</v>
+      </c>
+      <c r="C28" t="s">
+        <v>238</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="J28" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="K28" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="L28" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -2934,50 +3144,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>63252</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>155679</v>
+      </c>
+      <c r="C29" t="s">
+        <v>245</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="J29" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="K29" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="L29" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="O29" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -2995,50 +3209,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>63252</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>111001</v>
+      </c>
+      <c r="C30" t="s">
+        <v>252</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="J30" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="K30" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3056,50 +3274,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>63252</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>155680</v>
+      </c>
+      <c r="C31" t="s">
+        <v>258</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="J31" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="K31" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3113,50 +3335,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>63252</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>265</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="J32" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="K32" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="L32" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="O32" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3170,50 +3396,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>63252</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>155681</v>
+      </c>
+      <c r="C33" t="s">
+        <v>273</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="J33" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="K33" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="L33" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="O33" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3227,50 +3457,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>63252</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>155682</v>
+      </c>
+      <c r="C34" t="s">
+        <v>280</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="J34" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="K34" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="L34" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="O34" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3284,50 +3518,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>63252</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>155683</v>
+      </c>
+      <c r="C35" t="s">
+        <v>287</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="J35" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="K35" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35" t="s">
+        <v>291</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>292</v>
+      </c>
+      <c r="O35" t="s">
         <v>74</v>
-      </c>
-      <c r="L35" t="s">
-        <v>258</v>
-      </c>
-      <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s">
-        <v>259</v>
-      </c>
-      <c r="O35" t="s">
-        <v>70</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -3341,50 +3579,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>63252</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>3661</v>
+      </c>
+      <c r="C36" t="s">
+        <v>293</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="J36" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="K36" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="L36" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="O36" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -3404,7 +3646,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_368.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_368.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="322">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,120 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>bobbyandy</t>
-  </si>
-  <si>
-    <t>06/12/2018</t>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r583301693-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
+  </si>
+  <si>
+    <t>6615603</t>
+  </si>
+  <si>
+    <t>6567022</t>
+  </si>
+  <si>
+    <t>583301693</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express Roanoke/Northlake ROCKS!</t>
+  </si>
+  <si>
+    <t>If you want a great night’s sleep while traveling near Fort Worth, TX, may I suggest this Holiday Inn?My husband and I experienced an extremely comfortable bed - not always the case in many hotels. So comfortable, in fact, that I slept too close to the end of breakfast to report on breakfast. As my husband travels frequently (weekly) for business across the United States, he has incredible amounts of good, bad, and in-between knowledge of hotel quality. Now honestly, size of rooms doesn’t matter. This one had a lot of empty floor space, but for what purpose? Cleanliness makes a difference, and this one sparkled. Sleep quality, our #1 requirement, ranked high, and that makes all the difference in a hotel stay. Quiet matters, too. We had that. Staff gave great assistance, real concern for attentiveness to us, and interacted with us naturally, not simply following protocol.  We will return to this hotel and look forward to repeat experiences.  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>If you want a great night’s sleep while traveling near Fort Worth, TX, may I suggest this Holiday Inn?My husband and I experienced an extremely comfortable bed - not always the case in many hotels. So comfortable, in fact, that I slept too close to the end of breakfast to report on breakfast. As my husband travels frequently (weekly) for business across the United States, he has incredible amounts of good, bad, and in-between knowledge of hotel quality. Now honestly, size of rooms doesn’t matter. This one had a lot of empty floor space, but for what purpose? Cleanliness makes a difference, and this one sparkled. Sleep quality, our #1 requirement, ranked high, and that makes all the difference in a hotel stay. Quiet matters, too. We had that. Staff gave great assistance, real concern for attentiveness to us, and interacted with us naturally, not simply following protocol.  We will return to this hotel and look forward to repeat experiences.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r581405658-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
+  </si>
+  <si>
+    <t>581405658</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>Very pleased!</t>
+  </si>
+  <si>
+    <t>The staff were remarkably polite, refined, &amp; they were eager to please.Every member of the staff that I encountered was dressed very professionally as well. On a family level they were completely accommodating to my 2 son's.  The hotel was very clean &amp; rooms were comfortably modern.  I'll most definitely stay again at next year's good guys event.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r576485766-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
+  </si>
+  <si>
+    <t>576485766</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>In door pool</t>
+  </si>
+  <si>
+    <t>Nice hotel with reasonable price.  Employees nice and courteous. Rooms clean and with lots of space.  Refrigerator, microwave,coffee pot.blow dryer. Hot water and good pressure. Breakfast with stay has a spacious eating area. Large selection of foods and drinks. Stayed for the indoor pool. Which was freezing cold. Could not stay in. The jets were pumping in cold water. And that’s why gave it a four!!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r553557197-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
+  </si>
+  <si>
+    <t>553557197</t>
+  </si>
+  <si>
+    <t>01/13/2018</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice and quiet hotel with a very good breakfast. Hotel was very quiet and clean and the staff was very friendly. The breakfast was fully stocked even with a large crowd.  I was there with a group of students. There were many student groups there and it was still quiet. </t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r541397326-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
+  </si>
+  <si>
+    <t>541397326</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t>Great location, awesome staff</t>
+  </si>
+  <si>
+    <t>The hotel was clean, beds were very comfortable.  Breakfast was always great.  The staff were very friendly on the phone when I confirmed the room and in person when we arrived.  There are a lot of places to eat close by and Buc-ee's just across the highway.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r538311211-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
-    <t>6615603</t>
-  </si>
-  <si>
-    <t>6567022</t>
-  </si>
-  <si>
     <t>538311211</t>
   </si>
   <si>
@@ -180,9 +279,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Ken W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r534969011-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -198,9 +294,6 @@
     <t>Called day before and no handicapped room was available or reserved a regular room. Got there and while registering was told handicapped room was available. Had to wait a few minutes for it to be cleaned.Clean room, friendly staff and good food for people in a hurry and a reasonable price for the room.</t>
   </si>
   <si>
-    <t>ShellyinHoumaLA</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r522079619-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -219,9 +312,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t>MichaelFM76262</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r506211994-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -240,12 +330,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>lancerj</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r498396843-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -255,15 +339,9 @@
     <t>07/03/2017</t>
   </si>
   <si>
-    <t>Very nice</t>
-  </si>
-  <si>
     <t>Very nice room.  Staff was helpful.  Got to room about 1pm.  Husband needed to laydown.  Room wasn't ready till 2:15 to 2:30.  I know check in is 3pm but usually can get in earlier if we arrive early.  But was a nice stay.  Food was okay</t>
   </si>
   <si>
-    <t>tracemyirishroots</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r492582009-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -279,9 +357,6 @@
     <t>We stayed at this Holiday Inn as we were attending a family reunion close by. From the time we entered until the time we left, we felt very happy with our decision to stay here. All the staff were friendly and helpful. The hotel itself was clean and modern looking. The room was large, with refrigerator and a Keurig coffee maker. Comfortable bed and pillows. When we got home the staff called us as the housekeeper found a charger in the room. (it wasn't ours) I was impressed they took the time to do that.</t>
   </si>
   <si>
-    <t>jmgraffix</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r490827693-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -300,9 +375,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>GemOnTheRoad</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r484784988-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -321,15 +393,9 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Being able to depend on HIE to deliver consistent greatness makes a trip smooth and enjoyable. It was so nice to enter our spacious suite and not have to think about anything but the reason we were in town. The accommodations were, as usual, modern, sleek, clean, and comfortable. The shower had great pressure and ample hot water. Beds were cool and firm and pillows were soft and cozy. The staff greeted us warmly and attended to us in a friendly manner. My only complaint is the usual, and minor: breakfast needs improvement, namely the preparation of the proteins, which are usually salty or poorly prepared. But there are plenty of other options such as cereal, breads, and fruit. Thank you to HIE for being reliable and always meeting or exceeding expectations. More</t>
   </si>
   <si>
-    <t>Vincent B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r483988971-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -345,9 +411,6 @@
     <t xml:space="preserve">This place is Real Nice.The people that work here or So Friendly and Kind.The outside does not give the inside Justice.The rooms or So clean and nice, we have a safe, microwave and refrigerator.The room is handicap friendly. Continental breakfast is to die for,so many choices. Sausage eggs pancakes biscuits and gravy you name it they've got it fruit drinks everything.No need to go to a restaurant outside.This comes with the room.Bed so soft ,you guaranteed a Good Night sleep.  </t>
   </si>
   <si>
-    <t>Dana W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r483061364-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -363,12 +426,6 @@
     <t xml:space="preserve">My wife and I stayed 1 night without a reservation while on a motorcycle trip. The staff was very polite and friendly. The room and lobby was very clean and comfortable. Appears to be fairly new, if not they are doing a great job of keeping it looking nice. Would definitely stay there again. </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Jo M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r456526516-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -396,9 +453,6 @@
     <t>Great stay for 3 days while husband here on business. Friendly and efficient staff from front desk to housekeeping. Clean, modern and sleek hotel with comfy beds.  Awesome restaurants in downtown Roanoke that will please anyone. More</t>
   </si>
   <si>
-    <t>DeeMZ5</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r442272711-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -420,9 +474,6 @@
     <t>So we bought the old farmhouse in 2009 because it was an adventure.  Fast forward through MANY renovations to 2016 -- and an older breaker in the breaker box gives up, and the whole breaker box goes up in flames on a Sunday morning.  (God Bless Liberty Mutual, btw!)So, while the house has no electricity, heat or running water, the insurance company puts us (me &amp; my husband, 3 teenaged boys) up in a nearby hotel - this one, the Holiday Inn Express Northlake/Roanoke.Hayma &amp; Rodney at the front desk were so sweet when we checked in, I almost cried.  They found me the perfect rooms for a potentially LONG stay with teens:  2 adjoining rooms, right across from the pool &amp; gym.  The second night, at 9pm, when a kid was out of notebook paper for homework and COMPLETELY stressed about it, Basit found him some behind the desk and saved the day.  And Bryonna made sure we got breakfast, just a little early, when we had to leave for school before breakfast.  (She also let me talk her ear off on one or two occasions.)The rooms were clean, breakfast always good, the pool was wonderful and the gym was good, too.  The staff is amazing.  If you get the opportunity, stay here.More</t>
   </si>
   <si>
-    <t>Ratboy859</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r438611217-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -450,9 +501,6 @@
     <t>With my previous review in place (June 2016), I decided to give it another chance.  I'm glad that I did.  I was placed towards the front of the hotel and didn't hear any construction issues.  I did hear some road noise, but it wasn't a bother.  The Air Conditioning system worked flawlessly and did provide some 'white noise' to counteract any disturbances.I was warmly greeted by the Front Desk and was asked if I had my 'tax exempt' form ready for filing.  I forgot about it and the Front Desk remembered!  Nicely done.  The room was comfortable and the bed (king size) was comfy.  The morning breakfast staff was gracious and smiling.  Yep, things are improving and I will stay there in the future.  I'm glad that I gave this IHG property another chance.More</t>
   </si>
   <si>
-    <t>Pris B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r435978846-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -468,9 +516,6 @@
     <t>Hubby and I had the pleasure of staying at the new motel. I must say this was very modern for a HIE and the staff was the nicest we have had anywhere. Although located next to I-35, it was extremely quiet and very,very clean</t>
   </si>
   <si>
-    <t>rchogan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r409483369-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -498,9 +543,6 @@
     <t>Stayed there overnight told by front desk Christina it was okay to park our oversized vehicle on the road in front .our truck was towed away by local police and $700 to get it out. Hotel manager refused to help us and actually called the police on us .Absolute worst hotel experience ever!More</t>
   </si>
   <si>
-    <t>Lee M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r395614627-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -517,9 +559,6 @@
   </si>
   <si>
     <t>July 2016</t>
-  </si>
-  <si>
-    <t>sammyc213</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r393741146-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
@@ -568,9 +607,6 @@
 So, it's a modern HIE with an interesting design with tiles on the bathroom that look like wood floors.  The HVAC worked well.  The complimentary breakfast is the standard usual HIE fare.  The upside is that the morning serving host was very gracious and always had a smile and greeting for me.  Very nice lady that brought a smile to...I am a Spire Elite member and I usually book the IHG line because of dependability, service and overall comfort.  I stayed in this HIE north of Fossil Creek due to the nature of the I35W construction.  I  booked at gov't lodging rate because of my duty status.  On the last morning (Friday), I kept hearing the "BEEP, BEEP, BEEP" that started about 3:00 am.  I thought it was an alarm clock in a spare room.  It went on for hours.  What it was is the construction on the back side of the hotel.  Lots of cement mixer trucks and lots of construction going on at 0300 - rise and shine.During check out, I was given the gov't lodging rate except for Thursday night.  It was race weekend and I wasn't informed about the rate increase until I got the bill on Friday morning.  After talking with the front desk, I was provided the gov't rate for Thursday night - but thank goodness I took a look at my bill.  No one mentioned it to me prior to check-in.  So, it's a modern HIE with an interesting design with tiles on the bathroom that look like wood floors.  The HVAC worked well.  The complimentary breakfast is the standard usual HIE fare.  The upside is that the morning serving host was very gracious and always had a smile and greeting for me.  Very nice lady that brought a smile to my face.  I have mixed emotions about staying here.  If it's trying to capitalize on making money from the Texas Motor Speedway - then go for it - but ensure you mention the rate hikes to others that were there for the week.  I'm doing a lot of travel to the Fort Worth, TX area and I'm still looking for that niche place that is close to work while being a 'home away from home' - this HIE didn't make that happen.More</t>
   </si>
   <si>
-    <t>Craigatcraignet</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r377960462-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -592,9 +628,6 @@
     <t>First I want to thank Rodney and Sadit (sp?) for their work to make our stay better.  When we arrived in the room the first thing that happened was my wife tripping on the over turned luggage rack.  Then we noted that all of the drawers were wide open and the ottoman was upside down.  After telling the desk about I was told that we would be upgraded to a better room the next day and that we would get extra reward points.  We did get the room, an executive king suite but I'm still waiting for the points.  The rooms were clean and comfortable,  The breakfast was the usual so it was good.  Nice pool.  Again thanks to the staff for making the stay better.   Also check out the Buck-ee's on the other side of the freeway.More</t>
   </si>
   <si>
-    <t>Phil M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r375165855-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -610,7 +643,103 @@
     <t>The hotel was nice. The rooms were updated recently and nicely furnished. The bathroom was functional with nice fixtures.  The hotel was clean and has a pool and gym. Nice place and would stay again.It is very close to the racetrack and there is some great food in nearby Roanoke.</t>
   </si>
   <si>
-    <t>Sandra B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r360358954-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
+  </si>
+  <si>
+    <t>360358954</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modern , clean , comfortable </t>
+  </si>
+  <si>
+    <t>This hotel is great , new, well decorated with a modern teal and gray theme. Showers have great water pressure and high shower heads. I'm tall so this is a big deal for me. Great breakfast and large comfortable room. The beds are very high not a problem for me but could be for someone else. Overall , would stay here again.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r338459015-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
+  </si>
+  <si>
+    <t>338459015</t>
+  </si>
+  <si>
+    <t>01/08/2016</t>
+  </si>
+  <si>
+    <t>NICE PLACE TO STAY</t>
+  </si>
+  <si>
+    <t>Nice hotel.  Not easy to find if you are not familiar with the area.  Good amenities, breakfast and cookies at night.  If you want quiet, request room in back in corner area on top floor.  Other rooms can be noisy due to heavy truck traffic.Staff very accommodating especially Ginger the manger and Briana staff help.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r337379442-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
+  </si>
+  <si>
+    <t>337379442</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>Modern &amp; Comfortable</t>
+  </si>
+  <si>
+    <t>This hotel is modern, clean, and comfortable. I love the color and layout of the property. The waterfall wall in the lobby is beautiful and adds to the overall modern theme. There wasn't much in the immediate area, but it's easy to get to.  The breakfast attendant was amazing and so friendly. The breakfast area is large and well-kept.  I enjoyed a double room with my friend, there were only 2 of us but the room could've definitely accommodated at least twice that and still be roomy. In addition to the two queen beds, there was also a sofa pullout. The room also had a good sized mini-fridge and microwave with utensils in the cupboard. I'm looking forward to the next time I can enjoy this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>This hotel is modern, clean, and comfortable. I love the color and layout of the property. The waterfall wall in the lobby is beautiful and adds to the overall modern theme. There wasn't much in the immediate area, but it's easy to get to.  The breakfast attendant was amazing and so friendly. The breakfast area is large and well-kept.  I enjoyed a double room with my friend, there were only 2 of us but the room could've definitely accommodated at least twice that and still be roomy. In addition to the two queen beds, there was also a sofa pullout. The room also had a good sized mini-fridge and microwave with utensils in the cupboard. I'm looking forward to the next time I can enjoy this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r325898954-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
+  </si>
+  <si>
+    <t>325898954</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Very modern</t>
+  </si>
+  <si>
+    <t>The rooms were very nice but the sofa and chairs were  VERY uncomfortable.  The hotel is designed in a very modern style that seemed to be very stark &amp; cold.  The beds were comfortable but if you are on the shorter side, you might need to take a running start to get into it.  The staff seemed friendly enough and the breakfast was good.  Overall a decent place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r319474344-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
+  </si>
+  <si>
+    <t>319474344</t>
+  </si>
+  <si>
+    <t>10/16/2015</t>
+  </si>
+  <si>
+    <t>The night auditor should go to school.</t>
+  </si>
+  <si>
+    <t>The night auditor doesn't know the difference between a debit and a credit. I have been charged almost $1000 for a 4 night stay that was to have been on my manger's card anyway. He gave them his card and we checked on it at least once when charges started to appear on my card.  Talked with the Front Desk 3 times.  I was told it would be taken care of and "it takes a few days."  Still Waiting!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Roanoke/Northlake, responded to this reviewResponded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2015</t>
+  </si>
+  <si>
+    <t>The night auditor doesn't know the difference between a debit and a credit. I have been charged almost $1000 for a 4 night stay that was to have been on my manger's card anyway. He gave them his card and we checked on it at least once when charges started to appear on my card.  Talked with the Front Desk 3 times.  I was told it would be taken care of and "it takes a few days."  Still Waiting!!!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r310291314-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
@@ -631,9 +760,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>Laura A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r299998788-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -652,9 +778,6 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>Traveller68845</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r290748392-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -676,9 +799,6 @@
     <t>Definitely a newer property, with a more modern look than most HIE properties.  My wife was impressed.   Was welcomed as an IHG Platinum member, given choice of usual amenities (Snack/water) or a 1,000 pts ...  took the points, but lo and behold, only 500 were credited to my account?  Wi fi again a little awkward to sign in/maintain.  (Desk chair worked!)   Room was very comfortable and clean.  Slept very well.   Breakfast area was excellent, probably the best I have seen in years.   Food was very good and had a wide choice.  This is a newer property and the area is the process of development.  There was a Subway close, but other than that, most restaurants, etc are probably 2-3 miles away at present.   Just a note.More</t>
   </si>
   <si>
-    <t>MISTADAYLON</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r286472513-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -697,9 +817,6 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t>Greg D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r283702738-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -715,9 +832,6 @@
     <t>I stayed here one night after a late night delayed flight out of Love Field. Property is very well cared for....room was large and clean. The breakfast buffet was included and had a large selection of hot and cold breakfast items. Wifi was pretty fast considering most hotels I've stayed at. Staff were very friendly. This hotel is basically at the corner of I35w and highway 114...caddy corner to the Texas motor speedway;all in all, a very good location. The room was $79, not bad for the location and how nice the place was.</t>
   </si>
   <si>
-    <t>Jo_in_TX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r281879507-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -736,9 +850,6 @@
     <t>We had a wedding to attend in Denton and also a family birthday gathering so we all decided to stay at this hotel. The location is great, just off I-35, across from the Texas Motorway race track. There were no races the weekend we were there so it was not crazy. The hotel is also close to great restaurants in downtown Roanoke, Walmart, Chic-Fila, Wendy's, Subway, etc. It was just a 10 min drive to these stores. The hotel is new, modern and clean. The hotel staff, from front office to housekeeping and especially the dining room staff were very friendly and professional. We had booked a Queen Suite and it was very comfortable. There was a microwave, fridge and sink in the kitchenette area which made it convenient for us to store and reheat our left-overs from the restaurants. And a small bonus (for me at least!) was that their bathroom products like shampoo, conditioner and lotion are from Bath &amp; Bodyworks and it happened to be the scent I like!!! I used the fitness room when we were there and the equipment were all in good working condition. The kids in our group also used the swimming pool and had fun. The breakfast spread was decent, they had the usual cereals, yoghurt, pancakes, bacon, ham, scrambled eggs, breads, but I think the best item was the Cinnamon Rolls. They were as good as the ones from Cinnabon. The...We had a wedding to attend in Denton and also a family birthday gathering so we all decided to stay at this hotel. The location is great, just off I-35, across from the Texas Motorway race track. There were no races the weekend we were there so it was not crazy. The hotel is also close to great restaurants in downtown Roanoke, Walmart, Chic-Fila, Wendy's, Subway, etc. It was just a 10 min drive to these stores. The hotel is new, modern and clean. The hotel staff, from front office to housekeeping and especially the dining room staff were very friendly and professional. We had booked a Queen Suite and it was very comfortable. There was a microwave, fridge and sink in the kitchenette area which made it convenient for us to store and reheat our left-overs from the restaurants. And a small bonus (for me at least!) was that their bathroom products like shampoo, conditioner and lotion are from Bath &amp; Bodyworks and it happened to be the scent I like!!! I used the fitness room when we were there and the equipment were all in good working condition. The kids in our group also used the swimming pool and had fun. The breakfast spread was decent, they had the usual cereals, yoghurt, pancakes, bacon, ham, scrambled eggs, breads, but I think the best item was the Cinnamon Rolls. They were as good as the ones from Cinnabon. The only "down" thing I can think of is that the hotel only has 1 elevator so sometimes it can take a while to go up or down.  But all in all, we had a very good stay and I would recommend highly recommend this hotel.More</t>
   </si>
   <si>
-    <t>Kelly G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r271888390-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -757,9 +868,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>m0947</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r261791633-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -778,9 +886,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>Gerry G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r258619302-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -796,9 +901,6 @@
     <t>The hotel seems like it is new construction, everything is clean and appears to be new. The suite we stayed in was on the forth floor, was very clean, everything worked perfectly and was well appointed with a small sitting area, a wet bar with refrigerator, two flat screen TVs, one in the sitting area and one in the bedroom area.The staff was friendly and helpful responding to our requests with great service and asking if there was anything else we required. The check-in was quick and efficient.</t>
   </si>
   <si>
-    <t>Trisa D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r233749380-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
   </si>
   <si>
@@ -817,109 +919,75 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t>Amy M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r583301693-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
-  </si>
-  <si>
-    <t>583301693</t>
-  </si>
-  <si>
-    <t>05/28/2018</t>
-  </si>
-  <si>
-    <t>Holiday Inn Express Roanoke/Northlake ROCKS!</t>
-  </si>
-  <si>
-    <t>If you want a great night’s sleep while traveling near Fort Worth, TX, may I suggest this Holiday Inn?My husband and I experienced an extremely comfortable bed - not always the case in many hotels. So comfortable, in fact, that I slept too close to the end of breakfast to report on breakfast. As my husband travels frequently (weekly) for business across the United States, he has incredible amounts of good, bad, and in-between knowledge of hotel quality. Now honestly, size of rooms doesn’t matter. This one had a lot of empty floor space, but for what purpose? Cleanliness makes a difference, and this one sparkled. Sleep quality, our #1 requirement, ranked high, and that makes all the difference in a hotel stay. Quiet matters, too. We had that. Staff gave great assistance, real concern for attentiveness to us, and interacted with us naturally, not simply following protocol.  We will return to this hotel and look forward to repeat experiences.  MoreShow less</t>
-  </si>
-  <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t>If you want a great night’s sleep while traveling near Fort Worth, TX, may I suggest this Holiday Inn?My husband and I experienced an extremely comfortable bed - not always the case in many hotels. So comfortable, in fact, that I slept too close to the end of breakfast to report on breakfast. As my husband travels frequently (weekly) for business across the United States, he has incredible amounts of good, bad, and in-between knowledge of hotel quality. Now honestly, size of rooms doesn’t matter. This one had a lot of empty floor space, but for what purpose? Cleanliness makes a difference, and this one sparkled. Sleep quality, our #1 requirement, ranked high, and that makes all the difference in a hotel stay. Quiet matters, too. We had that. Staff gave great assistance, real concern for attentiveness to us, and interacted with us naturally, not simply following protocol.  We will return to this hotel and look forward to repeat experiences.  More</t>
-  </si>
-  <si>
-    <t>Mallory W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r581405658-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
-  </si>
-  <si>
-    <t>581405658</t>
-  </si>
-  <si>
-    <t>05/20/2018</t>
-  </si>
-  <si>
-    <t>Very pleased!</t>
-  </si>
-  <si>
-    <t>The staff were remarkably polite, refined, &amp; they were eager to please.Every member of the staff that I encountered was dressed very professionally as well. On a family level they were completely accommodating to my 2 son's.  The hotel was very clean &amp; rooms were comfortably modern.  I'll most definitely stay again at next year's good guys event.</t>
-  </si>
-  <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t>Bellaelong</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r576485766-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
-  </si>
-  <si>
-    <t>576485766</t>
-  </si>
-  <si>
-    <t>04/29/2018</t>
-  </si>
-  <si>
-    <t>In door pool</t>
-  </si>
-  <si>
-    <t>Nice hotel with reasonable price.  Employees nice and courteous. Rooms clean and with lots of space.  Refrigerator, microwave,coffee pot.blow dryer. Hot water and good pressure. Breakfast with stay has a spacious eating area. Large selection of foods and drinks. Stayed for the indoor pool. Which was freezing cold. Could not stay in. The jets were pumping in cold water. And that’s why gave it a four!!</t>
-  </si>
-  <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t>Scooter1223</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r553557197-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
-  </si>
-  <si>
-    <t>553557197</t>
-  </si>
-  <si>
-    <t>01/13/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very nice and quiet hotel with a very good breakfast. Hotel was very quiet and clean and the staff was very friendly. The breakfast was fully stocked even with a large crowd.  I was there with a group of students. There were many student groups there and it was still quiet. </t>
-  </si>
-  <si>
-    <t>January 2018</t>
-  </si>
-  <si>
-    <t>Gary L</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r541397326-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
-  </si>
-  <si>
-    <t>541397326</t>
-  </si>
-  <si>
-    <t>11/16/2017</t>
-  </si>
-  <si>
-    <t>Great location, awesome staff</t>
-  </si>
-  <si>
-    <t>The hotel was clean, beds were very comfortable.  Breakfast was always great.  The staff were very friendly on the phone when I confirmed the room and in person when we arrived.  There are a lot of places to eat close by and Buc-ee's just across the highway.</t>
-  </si>
-  <si>
-    <t>November 2017</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r228023352-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
+  </si>
+  <si>
+    <t>228023352</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>New and Clean</t>
+  </si>
+  <si>
+    <t>The hotel is good, new and clean. Staff were helpful. Breakfast was Holiday Inn OK. Room was spacious, but the bed and benches were very high, unless I got the giants room. WiFi was sloooow.The only reason to stay here as far as I can see is that it's within walking distance to the Texas Motor Speedway. There are no restaurants within walking distance except Subway (and I'm not sure that qualifies). At least the gas station sells beer and wine.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r218781591-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
+  </si>
+  <si>
+    <t>218781591</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>Still feels new, but OK</t>
+  </si>
+  <si>
+    <t>Still has new, just starting out feeling. There was a leak in the breakfast bar with a big bucket. The pool worked, though had a few hairs floating around both times which made it seem not clean. But the room was extremely comfortable including fridge and microwave and chair.  The breakfast was decent with warm cinnamon rolls, fresh pancakes and standard cereal,eggs and bagels and in evening we had freshly baked cookies. USA Todays  and computers with printer in the lobby. Wi-fi was a little wonky the first day or two but worked fine after that. The employees were friendly and seemed happy to see us every time we came in which made me glad to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Still has new, just starting out feeling. There was a leak in the breakfast bar with a big bucket. The pool worked, though had a few hairs floating around both times which made it seem not clean. But the room was extremely comfortable including fridge and microwave and chair.  The breakfast was decent with warm cinnamon rolls, fresh pancakes and standard cereal,eggs and bagels and in evening we had freshly baked cookies. USA Todays  and computers with printer in the lobby. Wi-fi was a little wonky the first day or two but worked fine after that. The employees were friendly and seemed happy to see us every time we came in which made me glad to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g6615603-d6567022-r217697616-Holiday_Inn_Express_Suites_Roanoke_Northlake-Northlake_Texas.html</t>
+  </si>
+  <si>
+    <t>217697616</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>worst Hotel ever</t>
+  </si>
+  <si>
+    <t>Me and my wife got a new job opportunity in Texas. We decided to do a road trip from New Jersey to Texas, we experience 7 different hotels. This Hotel is brand new, when we stayed in this hotel they were actually just finishing to put the carpet so the first thing that I though was (great everything will be brand new). We stayed for a whole month, the first week we had problems with the maids, I saw them every single day on my floor, but they clean the room 2 times a week and when I say cleaning its just getting the garbage, putting new towels and vacuum. The maids never changed the bed. The 2nd week the hotel had the pool out of service, I just told my wife, no big deal this happens, the problem was when they also had the elevator out of order. This last for one more week, after that on the 3rd week the hotel had leeks on 4 different places, it was a mess! they had actually buckets on the floor by breakfest entry and exit. And last but not least  the internet, it was a mission to get internet, one day was working and or the next 3 days no internet. I actually talked with the manager about it but he was more focus on receiving new customers than hear me out.
+I will never recomend this hotel to anybody,...Me and my wife got a new job opportunity in Texas. We decided to do a road trip from New Jersey to Texas, we experience 7 different hotels. This Hotel is brand new, when we stayed in this hotel they were actually just finishing to put the carpet so the first thing that I though was (great everything will be brand new). We stayed for a whole month, the first week we had problems with the maids, I saw them every single day on my floor, but they clean the room 2 times a week and when I say cleaning its just getting the garbage, putting new towels and vacuum. The maids never changed the bed. The 2nd week the hotel had the pool out of service, I just told my wife, no big deal this happens, the problem was when they also had the elevator out of order. This last for one more week, after that on the 3rd week the hotel had leeks on 4 different places, it was a mess! they had actually buckets on the floor by breakfest entry and exit. And last but not least  the internet, it was a mission to get internet, one day was working and or the next 3 days no internet. I actually talked with the manager about it but he was more focus on receiving new customers than hear me out.I will never recomend this hotel to anybody, WORST HOTEL EVER.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Roanoke/Northlake, responded to this reviewResponded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Me and my wife got a new job opportunity in Texas. We decided to do a road trip from New Jersey to Texas, we experience 7 different hotels. This Hotel is brand new, when we stayed in this hotel they were actually just finishing to put the carpet so the first thing that I though was (great everything will be brand new). We stayed for a whole month, the first week we had problems with the maids, I saw them every single day on my floor, but they clean the room 2 times a week and when I say cleaning its just getting the garbage, putting new towels and vacuum. The maids never changed the bed. The 2nd week the hotel had the pool out of service, I just told my wife, no big deal this happens, the problem was when they also had the elevator out of order. This last for one more week, after that on the 3rd week the hotel had leeks on 4 different places, it was a mess! they had actually buckets on the floor by breakfest entry and exit. And last but not least  the internet, it was a mission to get internet, one day was working and or the next 3 days no internet. I actually talked with the manager about it but he was more focus on receiving new customers than hear me out.
+I will never recomend this hotel to anybody,...Me and my wife got a new job opportunity in Texas. We decided to do a road trip from New Jersey to Texas, we experience 7 different hotels. This Hotel is brand new, when we stayed in this hotel they were actually just finishing to put the carpet so the first thing that I though was (great everything will be brand new). We stayed for a whole month, the first week we had problems with the maids, I saw them every single day on my floor, but they clean the room 2 times a week and when I say cleaning its just getting the garbage, putting new towels and vacuum. The maids never changed the bed. The 2nd week the hotel had the pool out of service, I just told my wife, no big deal this happens, the problem was when they also had the elevator out of order. This last for one more week, after that on the 3rd week the hotel had leeks on 4 different places, it was a mess! they had actually buckets on the floor by breakfest entry and exit. And last but not least  the internet, it was a mission to get internet, one day was working and or the next 3 days no internet. I actually talked with the manager about it but he was more focus on receiving new customers than hear me out.I will never recomend this hotel to anybody, WORST HOTEL EVER.More</t>
   </si>
 </sst>
 </file>
@@ -1424,114 +1492,100 @@
       <c r="A2" t="n">
         <v>63252</v>
       </c>
-      <c r="B2" t="n">
-        <v>155662</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>63252</v>
       </c>
-      <c r="B3" t="n">
-        <v>56456</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1545,54 +1599,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>63252</v>
       </c>
-      <c r="B4" t="n">
-        <v>155663</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1606,54 +1656,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>63252</v>
       </c>
-      <c r="B5" t="n">
-        <v>155664</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1667,119 +1713,121 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>63252</v>
       </c>
-      <c r="B6" t="n">
-        <v>155665</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>78</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
         <v>79</v>
       </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>63252</v>
       </c>
-      <c r="B7" t="n">
-        <v>155666</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
         <v>82</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>83</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>84</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>86</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>73</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="s"/>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
       <c r="Q7" t="n">
         <v>5</v>
       </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
@@ -1791,119 +1839,107 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>63252</v>
       </c>
-      <c r="B8" t="n">
-        <v>155667</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
         <v>88</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>89</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>90</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>91</v>
       </c>
-      <c r="L8" t="s">
-        <v>92</v>
-      </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>63252</v>
       </c>
-      <c r="B9" t="n">
-        <v>155668</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
         <v>95</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>96</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>97</v>
       </c>
-      <c r="K9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>100</v>
-      </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1917,54 +1953,50 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>63252</v>
       </c>
-      <c r="B10" t="n">
-        <v>155669</v>
-      </c>
-      <c r="C10" t="s">
-        <v>103</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1978,55 +2010,47 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>63252</v>
       </c>
-      <c r="B11" t="n">
-        <v>31401</v>
-      </c>
-      <c r="C11" t="s">
-        <v>109</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
-      <c r="N11" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11" t="s">
-        <v>115</v>
-      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
@@ -2039,249 +2063,231 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>63252</v>
       </c>
-      <c r="B12" t="n">
-        <v>38644</v>
-      </c>
-      <c r="C12" t="s">
-        <v>116</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X12" t="s">
-        <v>124</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>63252</v>
       </c>
-      <c r="B13" t="n">
-        <v>155670</v>
-      </c>
-      <c r="C13" t="s">
-        <v>126</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>63252</v>
       </c>
-      <c r="B14" t="n">
-        <v>155671</v>
-      </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="O14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>141</v>
-      </c>
-      <c r="X14" t="s">
-        <v>142</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>63252</v>
       </c>
-      <c r="B15" t="n">
-        <v>155672</v>
-      </c>
-      <c r="C15" t="s">
-        <v>144</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="O15" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2295,54 +2301,50 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>63252</v>
       </c>
-      <c r="B16" t="n">
-        <v>155673</v>
-      </c>
-      <c r="C16" t="s">
-        <v>150</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="O16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2353,329 +2355,293 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>157</v>
-      </c>
-      <c r="X16" t="s">
-        <v>158</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>63252</v>
       </c>
-      <c r="B17" t="n">
-        <v>7440</v>
-      </c>
-      <c r="C17" t="s">
-        <v>160</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>142</v>
+      </c>
+      <c r="X17" t="s">
+        <v>143</v>
+      </c>
       <c r="Y17" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>63252</v>
       </c>
-      <c r="B18" t="n">
-        <v>155674</v>
-      </c>
-      <c r="C18" t="s">
-        <v>167</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>63252</v>
       </c>
-      <c r="B19" t="n">
-        <v>155670</v>
-      </c>
-      <c r="C19" t="s">
-        <v>134</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="O19" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="X19" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="Y19" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>63252</v>
       </c>
-      <c r="B20" t="n">
-        <v>155675</v>
-      </c>
-      <c r="C20" t="s">
-        <v>182</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="O20" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>63252</v>
       </c>
-      <c r="B21" t="n">
-        <v>37724</v>
-      </c>
-      <c r="C21" t="s">
-        <v>190</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="J21" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="K21" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="L21" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="O21" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2686,183 +2652,185 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>172</v>
+      </c>
+      <c r="X21" t="s">
+        <v>173</v>
+      </c>
       <c r="Y21" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>63252</v>
       </c>
-      <c r="B22" t="n">
-        <v>8065</v>
-      </c>
-      <c r="C22" t="s">
-        <v>196</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="J22" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="K22" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="L22" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="O22" t="s">
-        <v>101</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>63252</v>
       </c>
-      <c r="B23" t="n">
-        <v>15275</v>
-      </c>
-      <c r="C23" t="s">
-        <v>203</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="J23" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="K23" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>63252</v>
       </c>
-      <c r="B24" t="n">
-        <v>155676</v>
-      </c>
-      <c r="C24" t="s">
-        <v>210</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="J24" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="K24" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="L24" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="O24" t="s">
-        <v>115</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="n">
@@ -2875,63 +2843,63 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>192</v>
+      </c>
+      <c r="X24" t="s">
+        <v>193</v>
+      </c>
       <c r="Y24" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>63252</v>
       </c>
-      <c r="B25" t="n">
-        <v>155677</v>
-      </c>
-      <c r="C25" t="s">
-        <v>218</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="J25" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="O25" t="s">
-        <v>74</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
@@ -2943,200 +2911,176 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>63252</v>
       </c>
-      <c r="B26" t="n">
-        <v>22665</v>
-      </c>
-      <c r="C26" t="s">
-        <v>225</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J26" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="K26" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>63252</v>
       </c>
-      <c r="B27" t="n">
-        <v>155678</v>
-      </c>
-      <c r="C27" t="s">
-        <v>231</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="J27" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>4</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>4</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>63252</v>
       </c>
-      <c r="B28" t="n">
-        <v>2660</v>
-      </c>
-      <c r="C28" t="s">
-        <v>238</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="J28" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="K28" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3144,57 +3088,55 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>63252</v>
       </c>
-      <c r="B29" t="n">
-        <v>155679</v>
-      </c>
-      <c r="C29" t="s">
-        <v>245</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="J29" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="O29" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
       <c r="R29" t="s"/>
       <c r="S29" t="n">
         <v>5</v>
@@ -3209,64 +3151,62 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>63252</v>
       </c>
-      <c r="B30" t="n">
-        <v>111001</v>
-      </c>
-      <c r="C30" t="s">
-        <v>252</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="J30" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="L30" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
       <c r="R30" t="s"/>
       <c r="S30" t="n">
         <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3274,115 +3214,115 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>63252</v>
       </c>
-      <c r="B31" t="n">
-        <v>155680</v>
-      </c>
-      <c r="C31" t="s">
-        <v>258</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="J31" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="K31" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="L31" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>237</v>
+      </c>
+      <c r="X31" t="s">
+        <v>238</v>
+      </c>
       <c r="Y31" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>63252</v>
       </c>
-      <c r="B32" t="n">
-        <v>95</v>
-      </c>
-      <c r="C32" t="s">
-        <v>265</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="J32" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="K32" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="O32" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3396,54 +3336,50 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>63252</v>
       </c>
-      <c r="B33" t="n">
-        <v>155681</v>
-      </c>
-      <c r="C33" t="s">
-        <v>273</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="J33" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="K33" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="O33" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3457,185 +3393,183 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>63252</v>
       </c>
-      <c r="B34" t="n">
-        <v>155682</v>
-      </c>
-      <c r="C34" t="s">
-        <v>280</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="J34" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="K34" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="L34" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="O34" t="s">
-        <v>115</v>
-      </c>
-      <c r="P34" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>63252</v>
       </c>
-      <c r="B35" t="n">
-        <v>155683</v>
-      </c>
-      <c r="C35" t="s">
-        <v>287</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="J35" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="K35" t="s">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="L35" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="O35" t="s">
-        <v>74</v>
-      </c>
-      <c r="P35" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>63252</v>
       </c>
-      <c r="B36" t="n">
-        <v>3661</v>
-      </c>
-      <c r="C36" t="s">
-        <v>293</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="J36" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="K36" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="L36" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="O36" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q36" t="s"/>
       <c r="R36" t="n">
         <v>5</v>
       </c>
-      <c r="S36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -3646,7 +3580,501 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63252</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>270</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>271</v>
+      </c>
+      <c r="J37" t="s">
+        <v>272</v>
+      </c>
+      <c r="K37" t="s">
+        <v>273</v>
+      </c>
+      <c r="L37" t="s">
+        <v>274</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>264</v>
+      </c>
+      <c r="O37" t="s">
+        <v>86</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63252</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>276</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>277</v>
+      </c>
+      <c r="J38" t="s">
+        <v>278</v>
+      </c>
+      <c r="K38" t="s">
+        <v>279</v>
+      </c>
+      <c r="L38" t="s">
+        <v>280</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>281</v>
+      </c>
+      <c r="O38" t="s">
+        <v>86</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63252</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>282</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>283</v>
+      </c>
+      <c r="J39" t="s">
+        <v>284</v>
+      </c>
+      <c r="K39" t="s">
+        <v>285</v>
+      </c>
+      <c r="L39" t="s">
+        <v>286</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>287</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63252</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>288</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>289</v>
+      </c>
+      <c r="J40" t="s">
+        <v>290</v>
+      </c>
+      <c r="K40" t="s">
+        <v>291</v>
+      </c>
+      <c r="L40" t="s">
+        <v>292</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>287</v>
+      </c>
+      <c r="O40" t="s">
+        <v>86</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63252</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>293</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>294</v>
+      </c>
+      <c r="J41" t="s">
+        <v>295</v>
+      </c>
+      <c r="K41" t="s">
+        <v>296</v>
+      </c>
+      <c r="L41" t="s">
+        <v>297</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
         <v>298</v>
+      </c>
+      <c r="O41" t="s">
+        <v>86</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63252</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>299</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>300</v>
+      </c>
+      <c r="J42" t="s">
+        <v>301</v>
+      </c>
+      <c r="K42" t="s">
+        <v>302</v>
+      </c>
+      <c r="L42" t="s">
+        <v>303</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>304</v>
+      </c>
+      <c r="O42" t="s">
+        <v>305</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63252</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>306</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>307</v>
+      </c>
+      <c r="J43" t="s">
+        <v>308</v>
+      </c>
+      <c r="K43" t="s">
+        <v>309</v>
+      </c>
+      <c r="L43" t="s">
+        <v>310</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>311</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63252</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>313</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>314</v>
+      </c>
+      <c r="J44" t="s">
+        <v>315</v>
+      </c>
+      <c r="K44" t="s">
+        <v>316</v>
+      </c>
+      <c r="L44" t="s">
+        <v>317</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>318</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>319</v>
+      </c>
+      <c r="X44" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
